--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y874"/>
+  <dimension ref="A1:Y875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="R873" s="2" t="inlineStr"/>
     </row>
-    <row r="874">
+    <row r="874" ht="15" customHeight="1">
       <c r="A874" t="inlineStr">
         <is>
           <t>A 39740-2023</t>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53851,6 +53851,68 @@
         <v>0</v>
       </c>
       <c r="R874" s="2" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>A 41328-2023</t>
+        </is>
+      </c>
+      <c r="B875" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C875" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>FINSPÅNG</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G875" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0</v>
+      </c>
+      <c r="I875" t="n">
+        <v>0</v>
+      </c>
+      <c r="J875" t="n">
+        <v>0</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0</v>
+      </c>
+      <c r="N875" t="n">
+        <v>0</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
+      <c r="R875" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -645,27 +645,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 14216-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 14216-2021.xlsx", "A 14216-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 14216-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 14216-2021.png", "A 14216-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 14216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 14216-2021.docx", "A 14216-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 14216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 14216-2021.docx", "A 14216-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 14216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 14216-2021.docx", "A 14216-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 14216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 14216-2021.docx", "A 14216-2021")</f>
         <v/>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,27 +752,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 57460-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 57460-2022.xlsx", "A 57460-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 57460-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 57460-2022.png", "A 57460-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 57460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 57460-2022.docx", "A 57460-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 57460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 57460-2022.docx", "A 57460-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 57460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 57460-2022.docx", "A 57460-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 57460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 57460-2022.docx", "A 57460-2022")</f>
         <v/>
       </c>
     </row>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,27 +852,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 10676-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 10676-2022.xlsx", "A 10676-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 10676-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 10676-2022.png", "A 10676-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 10676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 10676-2022.docx", "A 10676-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 10676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 10676-2022.docx", "A 10676-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 10676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 10676-2022.docx", "A 10676-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 10676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 10676-2022.docx", "A 10676-2022")</f>
         <v/>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,27 +951,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 57690-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 57690-2022.xlsx", "A 57690-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 57690-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 57690-2022.png", "A 57690-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 57690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 57690-2022.docx", "A 57690-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 57690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 57690-2022.docx", "A 57690-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 57690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 57690-2022.docx", "A 57690-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 57690-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 57690-2022.docx", "A 57690-2022")</f>
         <v/>
       </c>
     </row>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,27 +1048,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 54154-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 54154-2018.xlsx", "A 54154-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 54154-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 54154-2018.png", "A 54154-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 54154-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 54154-2018.docx", "A 54154-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 54154-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 54154-2018.docx", "A 54154-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 54154-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 54154-2018.docx", "A 54154-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 54154-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 54154-2018.docx", "A 54154-2018")</f>
         <v/>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,27 +1139,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6175-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6175-2022.xlsx", "A 6175-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6175-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6175-2022.png", "A 6175-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6175-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6175-2022.docx", "A 6175-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6175-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6175-2022.docx", "A 6175-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6175-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6175-2022.docx", "A 6175-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6175-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6175-2022.docx", "A 6175-2022")</f>
         <v/>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,27 +1234,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 55723-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 55723-2022.xlsx", "A 55723-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 55723-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 55723-2022.png", "A 55723-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 55723-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 55723-2022.docx", "A 55723-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 55723-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 55723-2022.docx", "A 55723-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 55723-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 55723-2022.docx", "A 55723-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 55723-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 55723-2022.docx", "A 55723-2022")</f>
         <v/>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,27 +1328,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 38065-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 38065-2021.xlsx", "A 38065-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 38065-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 38065-2021.png", "A 38065-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 38065-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 38065-2021.docx", "A 38065-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 38065-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 38065-2021.docx", "A 38065-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 38065-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 38065-2021.docx", "A 38065-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 38065-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 38065-2021.docx", "A 38065-2021")</f>
         <v/>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1421,27 +1421,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 35125-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 35125-2018.xlsx", "A 35125-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 35125-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 35125-2018.png", "A 35125-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 35125-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 35125-2018.docx", "A 35125-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 35125-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 35125-2018.docx", "A 35125-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 35125-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 35125-2018.docx", "A 35125-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 35125-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 35125-2018.docx", "A 35125-2018")</f>
         <v/>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1509,27 +1509,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 30913-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 30913-2020.xlsx", "A 30913-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 30913-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 30913-2020.png", "A 30913-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 30913-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 30913-2020.docx", "A 30913-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 30913-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 30913-2020.docx", "A 30913-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 30913-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 30913-2020.docx", "A 30913-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 30913-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 30913-2020.docx", "A 30913-2020")</f>
         <v/>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,27 +1602,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26284-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26284-2023.xlsx", "A 26284-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26284-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26284-2023.png", "A 26284-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26284-2023.docx", "A 26284-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26284-2023.docx", "A 26284-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26284-2023.docx", "A 26284-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26284-2023.docx", "A 26284-2023")</f>
         <v/>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,27 +1694,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3682-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3682-2020.xlsx", "A 3682-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3682-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3682-2020.png", "A 3682-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3682-2020.docx", "A 3682-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3682-2020.docx", "A 3682-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3682-2020.docx", "A 3682-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3682-2020.docx", "A 3682-2020")</f>
         <v/>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1781,27 +1781,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 48663-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 48663-2020.xlsx", "A 48663-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 48663-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 48663-2020.png", "A 48663-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 48663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 48663-2020.docx", "A 48663-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 48663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 48663-2020.docx", "A 48663-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 48663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 48663-2020.docx", "A 48663-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 48663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 48663-2020.docx", "A 48663-2020")</f>
         <v/>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1873,27 +1873,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 55863-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 55863-2020.xlsx", "A 55863-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 55863-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 55863-2020.png", "A 55863-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 55863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 55863-2020.docx", "A 55863-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 55863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 55863-2020.docx", "A 55863-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 55863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 55863-2020.docx", "A 55863-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 55863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 55863-2020.docx", "A 55863-2020")</f>
         <v/>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,27 +1965,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 1541-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 1541-2022.xlsx", "A 1541-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 1541-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 1541-2022.png", "A 1541-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 1541-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 1541-2022.docx", "A 1541-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 1541-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 1541-2022.docx", "A 1541-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 1541-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 1541-2022.docx", "A 1541-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 1541-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 1541-2022.docx", "A 1541-2022")</f>
         <v/>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,27 +2051,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 42654-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 42654-2019.xlsx", "A 42654-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 42654-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 42654-2019.png", "A 42654-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 42654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 42654-2019.docx", "A 42654-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 42654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 42654-2019.docx", "A 42654-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 42654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 42654-2019.docx", "A 42654-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 42654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 42654-2019.docx", "A 42654-2019")</f>
         <v/>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2137,27 +2137,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 46200-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 46200-2019.xlsx", "A 46200-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 46200-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 46200-2019.png", "A 46200-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 46200-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 46200-2019.docx", "A 46200-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 46200-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 46200-2019.docx", "A 46200-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 46200-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 46200-2019.docx", "A 46200-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 46200-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 46200-2019.docx", "A 46200-2019")</f>
         <v/>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2228,27 +2228,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 23893-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 23893-2020.xlsx", "A 23893-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 23893-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 23893-2020.png", "A 23893-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 23893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 23893-2020.docx", "A 23893-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 23893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 23893-2020.docx", "A 23893-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 23893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 23893-2020.docx", "A 23893-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 23893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 23893-2020.docx", "A 23893-2020")</f>
         <v/>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2319,27 +2319,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 18366-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 18366-2021.xlsx", "A 18366-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 18366-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 18366-2021.png", "A 18366-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 18366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 18366-2021.docx", "A 18366-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 18366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 18366-2021.docx", "A 18366-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 18366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 18366-2021.docx", "A 18366-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 18366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 18366-2021.docx", "A 18366-2021")</f>
         <v/>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2410,27 +2410,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 31894-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 31894-2022.xlsx", "A 31894-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 31894-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 31894-2022.png", "A 31894-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 31894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 31894-2022.docx", "A 31894-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 31894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 31894-2022.docx", "A 31894-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 31894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 31894-2022.docx", "A 31894-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 31894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 31894-2022.docx", "A 31894-2022")</f>
         <v/>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2501,27 +2501,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 32026-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 32026-2022.xlsx", "A 32026-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 32026-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 32026-2022.png", "A 32026-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 32026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 32026-2022.docx", "A 32026-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 32026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 32026-2022.docx", "A 32026-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 32026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 32026-2022.docx", "A 32026-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 32026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 32026-2022.docx", "A 32026-2022")</f>
         <v/>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,27 +2592,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 18075-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 18075-2023.xlsx", "A 18075-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 18075-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 18075-2023.png", "A 18075-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 18075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 18075-2023.docx", "A 18075-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 18075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 18075-2023.docx", "A 18075-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 18075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 18075-2023.docx", "A 18075-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 18075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 18075-2023.docx", "A 18075-2023")</f>
         <v/>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,27 +2683,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26888-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26888-2023.xlsx", "A 26888-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26888-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26888-2023.png", "A 26888-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26888-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26888-2023.docx", "A 26888-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26888-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26888-2023.docx", "A 26888-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26888-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26888-2023.docx", "A 26888-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26888-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26888-2023.docx", "A 26888-2023")</f>
         <v/>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,27 +2768,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 70444-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 70444-2018.xlsx", "A 70444-2018")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 70444-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 70444-2018.png", "A 70444-2018")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 70444-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 70444-2018.docx", "A 70444-2018")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 70444-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 70444-2018.docx", "A 70444-2018")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 70444-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 70444-2018.docx", "A 70444-2018")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 70444-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 70444-2018.docx", "A 70444-2018")</f>
         <v/>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2858,27 +2858,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 10630-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 10630-2019.xlsx", "A 10630-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 10630-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 10630-2019.png", "A 10630-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 10630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 10630-2019.docx", "A 10630-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 10630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 10630-2019.docx", "A 10630-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 10630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 10630-2019.docx", "A 10630-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 10630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 10630-2019.docx", "A 10630-2019")</f>
         <v/>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,27 +2943,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 19407-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 19407-2019.xlsx", "A 19407-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 19407-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 19407-2019.png", "A 19407-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 19407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 19407-2019.docx", "A 19407-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 19407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 19407-2019.docx", "A 19407-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 19407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 19407-2019.docx", "A 19407-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 19407-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 19407-2019.docx", "A 19407-2019")</f>
         <v/>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,27 +3028,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 24547-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 24547-2019.xlsx", "A 24547-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 24547-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 24547-2019.png", "A 24547-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 24547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 24547-2019.docx", "A 24547-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 24547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 24547-2019.docx", "A 24547-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 24547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 24547-2019.docx", "A 24547-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 24547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 24547-2019.docx", "A 24547-2019")</f>
         <v/>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,27 +3113,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26223-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26223-2019.xlsx", "A 26223-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26223-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26223-2019.png", "A 26223-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26223-2019.docx", "A 26223-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26223-2019.docx", "A 26223-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26223-2019.docx", "A 26223-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26223-2019.docx", "A 26223-2019")</f>
         <v/>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,27 +3198,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26227-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 26227-2019.xlsx", "A 26227-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26227-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 26227-2019.png", "A 26227-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26227-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 26227-2019.docx", "A 26227-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26227-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 26227-2019.docx", "A 26227-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26227-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 26227-2019.docx", "A 26227-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26227-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 26227-2019.docx", "A 26227-2019")</f>
         <v/>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3283,27 +3283,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 30229-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 30229-2019.xlsx", "A 30229-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 30229-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 30229-2019.png", "A 30229-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 30229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 30229-2019.docx", "A 30229-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 30229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 30229-2019.docx", "A 30229-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 30229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 30229-2019.docx", "A 30229-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 30229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 30229-2019.docx", "A 30229-2019")</f>
         <v/>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,27 +3373,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 34632-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 34632-2019.xlsx", "A 34632-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 34632-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 34632-2019.png", "A 34632-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 34632-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 34632-2019.docx", "A 34632-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 34632-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 34632-2019.docx", "A 34632-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 34632-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 34632-2019.docx", "A 34632-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 34632-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 34632-2019.docx", "A 34632-2019")</f>
         <v/>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,27 +3458,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 55658-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 55658-2019.xlsx", "A 55658-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 55658-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 55658-2019.png", "A 55658-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 55658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 55658-2019.docx", "A 55658-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 55658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 55658-2019.docx", "A 55658-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 55658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 55658-2019.docx", "A 55658-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 55658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 55658-2019.docx", "A 55658-2019")</f>
         <v/>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3548,27 +3548,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 2350-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 2350-2020.xlsx", "A 2350-2020")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 2350-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 2350-2020.png", "A 2350-2020")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 2350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 2350-2020.docx", "A 2350-2020")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 2350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 2350-2020.docx", "A 2350-2020")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 2350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 2350-2020.docx", "A 2350-2020")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 2350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 2350-2020.docx", "A 2350-2020")</f>
         <v/>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3633,27 +3633,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3021-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3021-2020.xlsx", "A 3021-2020")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3021-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3021-2020.png", "A 3021-2020")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3021-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3021-2020.docx", "A 3021-2020")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3021-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3021-2020.docx", "A 3021-2020")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3021-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3021-2020.docx", "A 3021-2020")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3021-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3021-2020.docx", "A 3021-2020")</f>
         <v/>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3723,27 +3723,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6775-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6775-2020.xlsx", "A 6775-2020")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6775-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6775-2020.png", "A 6775-2020")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6775-2020.docx", "A 6775-2020")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6775-2020.docx", "A 6775-2020")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6775-2020.docx", "A 6775-2020")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6775-2020.docx", "A 6775-2020")</f>
         <v/>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3813,27 +3813,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 14835-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 14835-2020.xlsx", "A 14835-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 14835-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 14835-2020.png", "A 14835-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 14835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 14835-2020.docx", "A 14835-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 14835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 14835-2020.docx", "A 14835-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 14835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 14835-2020.docx", "A 14835-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 14835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 14835-2020.docx", "A 14835-2020")</f>
         <v/>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,27 +3903,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 35003-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 35003-2020.xlsx", "A 35003-2020")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 35003-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 35003-2020.png", "A 35003-2020")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 35003-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 35003-2020.docx", "A 35003-2020")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 35003-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 35003-2020.docx", "A 35003-2020")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 35003-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 35003-2020.docx", "A 35003-2020")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 35003-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 35003-2020.docx", "A 35003-2020")</f>
         <v/>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3988,27 +3988,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 54832-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 54832-2020.xlsx", "A 54832-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 54832-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 54832-2020.png", "A 54832-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 54832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 54832-2020.docx", "A 54832-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 54832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 54832-2020.docx", "A 54832-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 54832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 54832-2020.docx", "A 54832-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 54832-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 54832-2020.docx", "A 54832-2020")</f>
         <v/>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,27 +4078,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 12446-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 12446-2021.xlsx", "A 12446-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 12446-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 12446-2021.png", "A 12446-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 12446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 12446-2021.docx", "A 12446-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 12446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 12446-2021.docx", "A 12446-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 12446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 12446-2021.docx", "A 12446-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 12446-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 12446-2021.docx", "A 12446-2021")</f>
         <v/>
       </c>
     </row>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4163,27 +4163,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 16747-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 16747-2021.xlsx", "A 16747-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 16747-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 16747-2021.png", "A 16747-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 16747-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 16747-2021.docx", "A 16747-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 16747-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 16747-2021.docx", "A 16747-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 16747-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 16747-2021.docx", "A 16747-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 16747-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 16747-2021.docx", "A 16747-2021")</f>
         <v/>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4253,27 +4253,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 38056-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 38056-2021.xlsx", "A 38056-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 38056-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 38056-2021.png", "A 38056-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 38056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 38056-2021.docx", "A 38056-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 38056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 38056-2021.docx", "A 38056-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 38056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 38056-2021.docx", "A 38056-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 38056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 38056-2021.docx", "A 38056-2021")</f>
         <v/>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4338,27 +4338,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 41742-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 41742-2021.xlsx", "A 41742-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 41742-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 41742-2021.png", "A 41742-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 41742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 41742-2021.docx", "A 41742-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 41742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 41742-2021.docx", "A 41742-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 41742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 41742-2021.docx", "A 41742-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 41742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 41742-2021.docx", "A 41742-2021")</f>
         <v/>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4423,27 +4423,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 68414-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 68414-2021.xlsx", "A 68414-2021")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 68414-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 68414-2021.png", "A 68414-2021")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 68414-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 68414-2021.docx", "A 68414-2021")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 68414-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 68414-2021.docx", "A 68414-2021")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 68414-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 68414-2021.docx", "A 68414-2021")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 68414-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 68414-2021.docx", "A 68414-2021")</f>
         <v/>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4513,27 +4513,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6035-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6035-2022.xlsx", "A 6035-2022")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6035-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6035-2022.png", "A 6035-2022")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6035-2022.docx", "A 6035-2022")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6035-2022.docx", "A 6035-2022")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6035-2022.docx", "A 6035-2022")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6035-2022.docx", "A 6035-2022")</f>
         <v/>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4603,27 +4603,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 17960-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 17960-2022.xlsx", "A 17960-2022")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 17960-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 17960-2022.png", "A 17960-2022")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 17960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 17960-2022.docx", "A 17960-2022")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 17960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 17960-2022.docx", "A 17960-2022")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 17960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 17960-2022.docx", "A 17960-2022")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 17960-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 17960-2022.docx", "A 17960-2022")</f>
         <v/>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4688,27 +4688,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 29467-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 29467-2022.xlsx", "A 29467-2022")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 29467-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 29467-2022.png", "A 29467-2022")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 29467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 29467-2022.docx", "A 29467-2022")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 29467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 29467-2022.docx", "A 29467-2022")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 29467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 29467-2022.docx", "A 29467-2022")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 29467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 29467-2022.docx", "A 29467-2022")</f>
         <v/>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4773,27 +4773,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 31750-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 31750-2022.xlsx", "A 31750-2022")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 31750-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 31750-2022.png", "A 31750-2022")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 31750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 31750-2022.docx", "A 31750-2022")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 31750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 31750-2022.docx", "A 31750-2022")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 31750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 31750-2022.docx", "A 31750-2022")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 31750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 31750-2022.docx", "A 31750-2022")</f>
         <v/>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4863,27 +4863,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 34096-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 34096-2022.xlsx", "A 34096-2022")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 34096-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 34096-2022.png", "A 34096-2022")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 34096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 34096-2022.docx", "A 34096-2022")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 34096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 34096-2022.docx", "A 34096-2022")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 34096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 34096-2022.docx", "A 34096-2022")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 34096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 34096-2022.docx", "A 34096-2022")</f>
         <v/>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4948,27 +4948,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 45256-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 45256-2022.xlsx", "A 45256-2022")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 45256-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 45256-2022.png", "A 45256-2022")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 45256-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 45256-2022.docx", "A 45256-2022")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 45256-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 45256-2022.docx", "A 45256-2022")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 45256-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 45256-2022.docx", "A 45256-2022")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 45256-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 45256-2022.docx", "A 45256-2022")</f>
         <v/>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5038,27 +5038,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 54954-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 54954-2022.xlsx", "A 54954-2022")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 54954-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 54954-2022.png", "A 54954-2022")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 54954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 54954-2022.docx", "A 54954-2022")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 54954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 54954-2022.docx", "A 54954-2022")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 54954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 54954-2022.docx", "A 54954-2022")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 54954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 54954-2022.docx", "A 54954-2022")</f>
         <v/>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5128,27 +5128,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 61104-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 61104-2022.xlsx", "A 61104-2022")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 61104-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 61104-2022.png", "A 61104-2022")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 61104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 61104-2022.docx", "A 61104-2022")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 61104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 61104-2022.docx", "A 61104-2022")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 61104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 61104-2022.docx", "A 61104-2022")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 61104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 61104-2022.docx", "A 61104-2022")</f>
         <v/>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5218,27 +5218,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 663-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 663-2023.xlsx", "A 663-2023")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 663-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 663-2023.png", "A 663-2023")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 663-2023.docx", "A 663-2023")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 663-2023.docx", "A 663-2023")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 663-2023.docx", "A 663-2023")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 663-2023.docx", "A 663-2023")</f>
         <v/>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5308,27 +5308,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3096-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3096-2023.xlsx", "A 3096-2023")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3096-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3096-2023.png", "A 3096-2023")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3096-2023.docx", "A 3096-2023")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3096-2023.docx", "A 3096-2023")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3096-2023.docx", "A 3096-2023")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3096-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3096-2023.docx", "A 3096-2023")</f>
         <v/>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5398,27 +5398,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3088-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 3088-2023.xlsx", "A 3088-2023")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3088-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 3088-2023.png", "A 3088-2023")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 3088-2023.docx", "A 3088-2023")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 3088-2023.docx", "A 3088-2023")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 3088-2023.docx", "A 3088-2023")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 3088-2023.docx", "A 3088-2023")</f>
         <v/>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5483,27 +5483,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6707-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 6707-2023.xlsx", "A 6707-2023")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6707-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 6707-2023.png", "A 6707-2023")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 6707-2023.docx", "A 6707-2023")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 6707-2023.docx", "A 6707-2023")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 6707-2023.docx", "A 6707-2023")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 6707-2023.docx", "A 6707-2023")</f>
         <v/>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5573,27 +5573,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 19404-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 19404-2023.xlsx", "A 19404-2023")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 19404-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 19404-2023.png", "A 19404-2023")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 19404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 19404-2023.docx", "A 19404-2023")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 19404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 19404-2023.docx", "A 19404-2023")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 19404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 19404-2023.docx", "A 19404-2023")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 19404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 19404-2023.docx", "A 19404-2023")</f>
         <v/>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5663,27 +5663,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 24411-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 24411-2023.xlsx", "A 24411-2023")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 24411-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 24411-2023.png", "A 24411-2023")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 24411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 24411-2023.docx", "A 24411-2023")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 24411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 24411-2023.docx", "A 24411-2023")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 24411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 24411-2023.docx", "A 24411-2023")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 24411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 24411-2023.docx", "A 24411-2023")</f>
         <v/>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5753,27 +5753,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 32570-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/artfynd/A 32570-2023.xlsx", "A 32570-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 32570-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/kartor/A 32570-2023.png", "A 32570-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 32570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomål/A 32570-2023.docx", "A 32570-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 32570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/klagomålsmail/A 32570-2023.docx", "A 32570-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 32570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsyn/A 32570-2023.docx", "A 32570-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 32570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FINSPANG/tillsynsmail/A 32570-2023.docx", "A 32570-2023")</f>
         <v/>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>43846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43846</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43851</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>43852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43853</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>43853</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43857</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43857</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>43857</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>43858</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43859</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43864</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>43865</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43866</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43873</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43874</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43878</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>43889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43893</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43895</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>43900</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>43906</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>43909</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43909</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43909</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>43909</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43936</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>43956</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>43956</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43967</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43967</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>43971</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43977</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43979</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43986</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>43991</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>43991</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>43993</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>43998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>43998</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>43998</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44003</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44008</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44008</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44011</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44013</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44013</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44018</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44018</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44018</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44022</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44023</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44036</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44053</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44053</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44055</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44056</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44056</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44064</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44067</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44067</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44069</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44069</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44071</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44071</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44071</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44075</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44075</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44075</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44079</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44084</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44084</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44085</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44085</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44085</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44088</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44097</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44099</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44102</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44107</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44109</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44109</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44112</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44117</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44118</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44118</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44119</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44123</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44125</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44127</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44128</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44128</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44128</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44131</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44151</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44151</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>44151</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44158</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44158</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44159</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44160</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44160</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44161</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44161</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44165</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44165</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>44165</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44172</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44176</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44180</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44181</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44181</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44182</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44182</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44182</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44193</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44193</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>44193</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44193</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44203</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44203</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44208</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44209</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44209</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44209</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44214</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44215</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44216</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44216</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44218</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44218</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44218</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44218</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44218</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44221</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44221</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44228</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44239</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>44244</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44245</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44246</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44246</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44249</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44249</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44249</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44249</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>44249</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44249</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44250</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44250</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44250</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44252</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44252</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>44253</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44257</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44257</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44258</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44258</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>44259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>44264</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>44265</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44265</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44267</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>44267</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>44267</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>44267</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44272</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44272</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44285</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44298</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44302</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44305</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44305</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44305</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44308</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44313</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44313</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44313</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44314</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44314</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>44314</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44314</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44315</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44315</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44315</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44315</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>44357</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>44357</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>44362</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44362</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44362</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44368</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44368</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44368</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44368</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44368</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44369</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44369</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>44369</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>44375</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44376</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44377</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44378</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44378</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44383</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44383</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44396</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44406</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44412</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44419</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44420</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44424</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44424</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44426</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>44428</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>44431</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44431</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44431</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44431</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44433</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44434</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44434</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44434</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>44435</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44438</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44438</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>44438</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33928,7 +33928,7 @@
         <v>44441</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44441</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>44444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>44448</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>44455</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>44455</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44456</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>44462</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44469</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>44469</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>44469</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44473</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>44475</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44476</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44476</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44476</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44476</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44476</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
         <v>44482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35492,7 +35492,7 @@
         <v>44491</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>44494</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35663,7 +35663,7 @@
         <v>44501</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44502</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44503</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44503</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44504</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44508</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44517</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44525</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>44532</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44532</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44533</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>44533</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>44533</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>44536</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44536</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44541</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44551</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44551</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44551</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44552</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44568</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44573</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>44574</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>44574</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44574</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44574</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44578</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>44581</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>44581</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44581</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44582</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44587</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44588</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44588</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44589</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44595</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44595</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44595</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>44595</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>44595</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>44595</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>44601</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>44601</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>44601</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44601</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44601</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44606</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44613</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>44613</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44616</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44627</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44627</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44637</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44642</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44644</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>44656</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44662</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44664</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44665</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44675</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44675</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44675</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44676</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44677</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>44678</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44678</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44679</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44680</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>44690</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>44697</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>44712</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40212,7 +40212,7 @@
         <v>44713</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>44714</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>44720</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>44729</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44732</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>44732</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>44734</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>44735</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>44741</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>44742</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>44742</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>44743</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>44749</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>44753</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44755</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44764</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41221,7 +41221,7 @@
         <v>44767</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44774</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>44774</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>44776</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>44778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41583,7 +41583,7 @@
         <v>44781</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41640,7 +41640,7 @@
         <v>44781</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>44782</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41754,7 +41754,7 @@
         <v>44795</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44795</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44796</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44799</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44802</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>44802</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>44802</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>44802</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         <v>44804</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44806</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44813</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44816</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>44817</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>44817</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44817</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>44817</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44819</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>44820</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>44826</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44827</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44827</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44831</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44831</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44833</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>44833</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>44833</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>44834</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>44839</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>44840</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>44840</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44842</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>44844</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44844</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44844</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44855</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44087,7 +44087,7 @@
         <v>44856</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44859</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>44859</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>44859</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>44859</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>44860</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>44860</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44486,7 +44486,7 @@
         <v>44860</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44543,7 +44543,7 @@
         <v>44860</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44861</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>44862</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>44864</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44865</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>44865</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>44865</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>44865</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>44866</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44871</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44874</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44876</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44880</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44881</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45371,7 +45371,7 @@
         <v>44887</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45428,7 +45428,7 @@
         <v>44887</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44887</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>44887</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>44889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44890</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>44890</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>44891</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44898</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44914</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44930</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44930</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44930</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44930</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>44930</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>44939</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>44943</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44944</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>44946</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46640,7 +46640,7 @@
         <v>44946</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>44949</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>44950</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>44951</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>44951</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44951</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47007,7 +47007,7 @@
         <v>44951</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>44953</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>44953</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47188,7 +47188,7 @@
         <v>44956</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47245,7 +47245,7 @@
         <v>44958</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44960</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>44960</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44965</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44965</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>44966</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44966</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
         <v>44966</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>44966</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44973</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48031,7 +48031,7 @@
         <v>44981</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>44981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44981</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>44985</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>44985</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>44986</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44987</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44993</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>44993</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44995</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44995</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44998</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45002</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48817,7 +48817,7 @@
         <v>45002</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48874,7 +48874,7 @@
         <v>45008</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45009</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45009</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45009</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45009</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49179,7 +49179,7 @@
         <v>45009</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49241,7 +49241,7 @@
         <v>45021</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49298,7 +49298,7 @@
         <v>45021</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>45021</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>45021</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49469,7 +49469,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45022</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>45022</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49779,7 +49779,7 @@
         <v>45033</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49841,7 +49841,7 @@
         <v>45033</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45033</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45033</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50027,7 +50027,7 @@
         <v>45037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45040</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45041</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45041</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45042</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45051</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>45058</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>45063</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51098,7 +51098,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51160,7 +51160,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51217,7 +51217,7 @@
         <v>45076</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45077</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>45077</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45078</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45079</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45082</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51646,7 +51646,7 @@
         <v>45084</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45086</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45091</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>45091</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>45093</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45095</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45095</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45095</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45095</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45095</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45095</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45095</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>45095</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45096</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45097</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45097</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45098</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45103</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52759,7 +52759,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45110</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45110</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45110</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>45110</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45131</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53453,7 +53453,7 @@
         <v>45131</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         <v>45147</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53572,7 +53572,7 @@
         <v>45149</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>45149</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45167</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53805,7 +53805,7 @@
         <v>45167</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53862,7 +53862,7 @@
         <v>45174</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt FINSPÅNG.xlsx
+++ b/Översikt FINSPÅNG.xlsx
@@ -572,7 +572,7 @@
         <v>44278</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>43392</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>44599</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43322</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45091</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>43853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44573</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43971</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45040</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45093</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43513</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43609</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43609</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43633</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43657</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43851</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>43867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43909</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44294</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44404</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44683</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44753</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44776</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44881</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44946</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44946</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45049</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43342</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43362</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43409</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43409</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43415</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43415</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43422</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43427</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43453</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43493</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43494</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43508</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43513</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43513</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43513</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43522</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43525</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43542</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43551</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43564</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43570</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43570</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43600</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43609</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43628</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43640</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43651</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43657</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>43657</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>43657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43657</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43661</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43683</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43699</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43700</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43700</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43705</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43705</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43705</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>43713</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43718</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43718</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43721</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>43724</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43725</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43726</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43733</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43733</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43736</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43736</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43738</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43738</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43738</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43746</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43760</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43760</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43760</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43763</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43767</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43768</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43787</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43787</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43787</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43787</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43787</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43792</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43792</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43796</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43798</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>43798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>43802</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>43805</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43808</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43808</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43808</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43809</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43812</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43818</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43822</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43825</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43844</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43846</v>
       </c>
       <c r="C234" s="1" t="n